--- a/excel/fqa/A/FQA_9월.xlsx
+++ b/excel/fqa/A/FQA_9월.xlsx
@@ -15781,8 +15781,16 @@
       <c r="N7" s="26" t="n"/>
       <c r="O7" s="26" t="n"/>
       <c r="P7" s="26" t="n"/>
-      <c r="Q7" s="26" t="n"/>
-      <c r="R7" s="26" t="n"/>
+      <c r="Q7" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R7" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S7" s="26" t="n"/>
       <c r="T7" s="26" t="n"/>
       <c r="U7" s="26" t="n"/>
@@ -15828,8 +15836,16 @@
       <c r="N8" s="26" t="n"/>
       <c r="O8" s="26" t="n"/>
       <c r="P8" s="26" t="n"/>
-      <c r="Q8" s="26" t="n"/>
-      <c r="R8" s="26" t="n"/>
+      <c r="Q8" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R8" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S8" s="26" t="n"/>
       <c r="T8" s="26" t="n"/>
       <c r="U8" s="26" t="n"/>
@@ -15875,8 +15891,16 @@
       <c r="N9" s="26" t="n"/>
       <c r="O9" s="26" t="n"/>
       <c r="P9" s="26" t="n"/>
-      <c r="Q9" s="26" t="n"/>
-      <c r="R9" s="26" t="n"/>
+      <c r="Q9" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R9" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S9" s="26" t="n"/>
       <c r="T9" s="26" t="n"/>
       <c r="U9" s="26" t="n"/>
@@ -15922,8 +15946,16 @@
       <c r="N10" s="26" t="n"/>
       <c r="O10" s="26" t="n"/>
       <c r="P10" s="26" t="n"/>
-      <c r="Q10" s="26" t="n"/>
-      <c r="R10" s="26" t="n"/>
+      <c r="Q10" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R10" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S10" s="26" t="n"/>
       <c r="T10" s="26" t="n"/>
       <c r="U10" s="26" t="n"/>
@@ -15992,8 +16024,16 @@
       <c r="N11" s="26" t="n"/>
       <c r="O11" s="26" t="n"/>
       <c r="P11" s="26" t="n"/>
-      <c r="Q11" s="26" t="n"/>
-      <c r="R11" s="26" t="n"/>
+      <c r="Q11" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R11" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S11" s="26" t="n"/>
       <c r="T11" s="26" t="n"/>
       <c r="U11" s="26" t="n"/>
@@ -16101,8 +16141,16 @@
       <c r="N13" s="26" t="n"/>
       <c r="O13" s="26" t="n"/>
       <c r="P13" s="26" t="n"/>
-      <c r="Q13" s="26" t="n"/>
-      <c r="R13" s="26" t="n"/>
+      <c r="Q13" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R13" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S13" s="26" t="n"/>
       <c r="T13" s="26" t="n"/>
       <c r="U13" s="26" t="n"/>
@@ -16210,8 +16258,16 @@
       <c r="N15" s="26" t="n"/>
       <c r="O15" s="26" t="n"/>
       <c r="P15" s="26" t="n"/>
-      <c r="Q15" s="26" t="n"/>
-      <c r="R15" s="26" t="n"/>
+      <c r="Q15" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R15" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S15" s="26" t="n"/>
       <c r="T15" s="26" t="n"/>
       <c r="U15" s="26" t="n"/>
@@ -16319,8 +16375,16 @@
       <c r="N17" s="26" t="n"/>
       <c r="O17" s="26" t="n"/>
       <c r="P17" s="26" t="n"/>
-      <c r="Q17" s="26" t="n"/>
-      <c r="R17" s="26" t="n"/>
+      <c r="Q17" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R17" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S17" s="26" t="n"/>
       <c r="T17" s="26" t="n"/>
       <c r="U17" s="26" t="n"/>
@@ -16428,8 +16492,16 @@
       <c r="N19" s="26" t="n"/>
       <c r="O19" s="26" t="n"/>
       <c r="P19" s="26" t="n"/>
-      <c r="Q19" s="26" t="n"/>
-      <c r="R19" s="26" t="n"/>
+      <c r="Q19" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R19" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S19" s="26" t="n"/>
       <c r="T19" s="26" t="n"/>
       <c r="U19" s="26" t="n"/>
@@ -16538,8 +16610,16 @@
       <c r="N21" s="26" t="n"/>
       <c r="O21" s="26" t="n"/>
       <c r="P21" s="26" t="n"/>
-      <c r="Q21" s="26" t="n"/>
-      <c r="R21" s="26" t="n"/>
+      <c r="Q21" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R21" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S21" s="26" t="n"/>
       <c r="T21" s="26" t="n"/>
       <c r="U21" s="26" t="n"/>
@@ -16646,8 +16726,16 @@
       <c r="N23" s="26" t="n"/>
       <c r="O23" s="26" t="n"/>
       <c r="P23" s="26" t="n"/>
-      <c r="Q23" s="26" t="n"/>
-      <c r="R23" s="26" t="n"/>
+      <c r="Q23" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R23" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S23" s="26" t="n"/>
       <c r="T23" s="26" t="n"/>
       <c r="U23" s="26" t="n"/>
@@ -16755,8 +16843,16 @@
       <c r="N25" s="26" t="n"/>
       <c r="O25" s="26" t="n"/>
       <c r="P25" s="26" t="n"/>
-      <c r="Q25" s="26" t="n"/>
-      <c r="R25" s="26" t="n"/>
+      <c r="Q25" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R25" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S25" s="26" t="n"/>
       <c r="T25" s="26" t="n"/>
       <c r="U25" s="26" t="n"/>
@@ -16864,8 +16960,16 @@
       <c r="N27" s="26" t="n"/>
       <c r="O27" s="26" t="n"/>
       <c r="P27" s="26" t="n"/>
-      <c r="Q27" s="26" t="n"/>
-      <c r="R27" s="26" t="n"/>
+      <c r="Q27" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R27" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S27" s="26" t="n"/>
       <c r="T27" s="26" t="n"/>
       <c r="U27" s="26" t="n"/>
@@ -16956,7 +17060,7 @@
       </c>
       <c r="G29" s="46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 최근 교체일: 240831   다음 교체일: 241129</t>
+          <t xml:space="preserve"> 최근 교체일: 240911   다음 교체일: 241210</t>
         </is>
       </c>
       <c r="H29" s="57" t="n"/>
@@ -17021,7 +17125,7 @@
       </c>
       <c r="G30" s="46" t="inlineStr">
         <is>
-          <t>최근 교체일: 240901   다음 교체일: 250901</t>
+          <t xml:space="preserve"> 최근 교체일: 240911   다음 교체일: 250911</t>
         </is>
       </c>
       <c r="H30" s="57" t="n"/>
@@ -17102,8 +17206,16 @@
       <c r="N31" s="26" t="n"/>
       <c r="O31" s="26" t="n"/>
       <c r="P31" s="26" t="n"/>
-      <c r="Q31" s="26" t="n"/>
-      <c r="R31" s="26" t="n"/>
+      <c r="Q31" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R31" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S31" s="26" t="n"/>
       <c r="T31" s="26" t="n"/>
       <c r="U31" s="26" t="n"/>
@@ -17201,8 +17313,16 @@
       <c r="N33" s="26" t="n"/>
       <c r="O33" s="26" t="n"/>
       <c r="P33" s="26" t="n"/>
-      <c r="Q33" s="26" t="n"/>
-      <c r="R33" s="26" t="n"/>
+      <c r="Q33" s="26" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
+      <c r="R33" s="26" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
       <c r="S33" s="26" t="n"/>
       <c r="T33" s="26" t="n"/>
       <c r="U33" s="26" t="n"/>
@@ -17252,8 +17372,16 @@
       <c r="N34" s="26" t="n"/>
       <c r="O34" s="26" t="n"/>
       <c r="P34" s="26" t="n"/>
-      <c r="Q34" s="26" t="n"/>
-      <c r="R34" s="26" t="n"/>
+      <c r="Q34" s="26" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
+      <c r="R34" s="26" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
       <c r="S34" s="26" t="n"/>
       <c r="T34" s="26" t="n"/>
       <c r="U34" s="26" t="n"/>
@@ -18130,8 +18258,16 @@
       <c r="N7" s="26" t="n"/>
       <c r="O7" s="26" t="n"/>
       <c r="P7" s="26" t="n"/>
-      <c r="Q7" s="26" t="n"/>
-      <c r="R7" s="26" t="n"/>
+      <c r="Q7" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R7" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S7" s="26" t="n"/>
       <c r="T7" s="26" t="n"/>
       <c r="U7" s="26" t="n"/>
@@ -18177,8 +18313,16 @@
       <c r="N8" s="26" t="n"/>
       <c r="O8" s="26" t="n"/>
       <c r="P8" s="26" t="n"/>
-      <c r="Q8" s="26" t="n"/>
-      <c r="R8" s="26" t="n"/>
+      <c r="Q8" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R8" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S8" s="26" t="n"/>
       <c r="T8" s="26" t="n"/>
       <c r="U8" s="26" t="n"/>
@@ -18239,8 +18383,16 @@
       <c r="N9" s="26" t="n"/>
       <c r="O9" s="26" t="n"/>
       <c r="P9" s="26" t="n"/>
-      <c r="Q9" s="26" t="n"/>
-      <c r="R9" s="26" t="n"/>
+      <c r="Q9" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R9" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S9" s="26" t="n"/>
       <c r="T9" s="26" t="n"/>
       <c r="U9" s="26" t="n"/>
@@ -18286,8 +18438,16 @@
       <c r="N10" s="26" t="n"/>
       <c r="O10" s="26" t="n"/>
       <c r="P10" s="26" t="n"/>
-      <c r="Q10" s="26" t="n"/>
-      <c r="R10" s="26" t="n"/>
+      <c r="Q10" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R10" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S10" s="26" t="n"/>
       <c r="T10" s="26" t="n"/>
       <c r="U10" s="26" t="n"/>
@@ -18357,8 +18517,16 @@
       <c r="N11" s="26" t="n"/>
       <c r="O11" s="26" t="n"/>
       <c r="P11" s="26" t="n"/>
-      <c r="Q11" s="26" t="n"/>
-      <c r="R11" s="26" t="n"/>
+      <c r="Q11" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R11" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S11" s="26" t="n"/>
       <c r="T11" s="26" t="n"/>
       <c r="U11" s="26" t="n"/>
@@ -18458,8 +18626,16 @@
       <c r="N13" s="26" t="n"/>
       <c r="O13" s="26" t="n"/>
       <c r="P13" s="26" t="n"/>
-      <c r="Q13" s="26" t="n"/>
-      <c r="R13" s="26" t="n"/>
+      <c r="Q13" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R13" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S13" s="26" t="n"/>
       <c r="T13" s="26" t="n"/>
       <c r="U13" s="26" t="n"/>
@@ -18568,8 +18744,16 @@
       <c r="N15" s="26" t="n"/>
       <c r="O15" s="26" t="n"/>
       <c r="P15" s="26" t="n"/>
-      <c r="Q15" s="26" t="n"/>
-      <c r="R15" s="26" t="n"/>
+      <c r="Q15" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R15" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S15" s="26" t="n"/>
       <c r="T15" s="26" t="n"/>
       <c r="U15" s="26" t="n"/>
@@ -18669,8 +18853,16 @@
       <c r="N17" s="26" t="n"/>
       <c r="O17" s="26" t="n"/>
       <c r="P17" s="26" t="n"/>
-      <c r="Q17" s="26" t="n"/>
-      <c r="R17" s="26" t="n"/>
+      <c r="Q17" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R17" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S17" s="26" t="n"/>
       <c r="T17" s="26" t="n"/>
       <c r="U17" s="26" t="n"/>
@@ -18779,8 +18971,16 @@
       <c r="N19" s="26" t="n"/>
       <c r="O19" s="26" t="n"/>
       <c r="P19" s="26" t="n"/>
-      <c r="Q19" s="26" t="n"/>
-      <c r="R19" s="26" t="n"/>
+      <c r="Q19" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R19" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S19" s="26" t="n"/>
       <c r="T19" s="26" t="n"/>
       <c r="U19" s="26" t="n"/>
@@ -18880,8 +19080,16 @@
       <c r="N21" s="26" t="n"/>
       <c r="O21" s="26" t="n"/>
       <c r="P21" s="26" t="n"/>
-      <c r="Q21" s="26" t="n"/>
-      <c r="R21" s="26" t="n"/>
+      <c r="Q21" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R21" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S21" s="26" t="n"/>
       <c r="T21" s="26" t="n"/>
       <c r="U21" s="26" t="n"/>
@@ -18990,8 +19198,16 @@
       <c r="N23" s="26" t="n"/>
       <c r="O23" s="26" t="n"/>
       <c r="P23" s="26" t="n"/>
-      <c r="Q23" s="26" t="n"/>
-      <c r="R23" s="26" t="n"/>
+      <c r="Q23" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R23" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S23" s="26" t="n"/>
       <c r="T23" s="26" t="n"/>
       <c r="U23" s="26" t="n"/>
@@ -19091,8 +19307,16 @@
       <c r="N25" s="26" t="n"/>
       <c r="O25" s="26" t="n"/>
       <c r="P25" s="26" t="n"/>
-      <c r="Q25" s="26" t="n"/>
-      <c r="R25" s="26" t="n"/>
+      <c r="Q25" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R25" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S25" s="26" t="n"/>
       <c r="T25" s="26" t="n"/>
       <c r="U25" s="26" t="n"/>
@@ -19202,8 +19426,16 @@
       <c r="N27" s="26" t="n"/>
       <c r="O27" s="26" t="n"/>
       <c r="P27" s="26" t="n"/>
-      <c r="Q27" s="26" t="n"/>
-      <c r="R27" s="26" t="n"/>
+      <c r="Q27" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R27" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S27" s="26" t="n"/>
       <c r="T27" s="26" t="n"/>
       <c r="U27" s="26" t="n"/>
@@ -19302,8 +19534,16 @@
       <c r="N29" s="26" t="n"/>
       <c r="O29" s="26" t="n"/>
       <c r="P29" s="26" t="n"/>
-      <c r="Q29" s="26" t="n"/>
-      <c r="R29" s="26" t="n"/>
+      <c r="Q29" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R29" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S29" s="26" t="n"/>
       <c r="T29" s="26" t="n"/>
       <c r="U29" s="26" t="n"/>
@@ -19413,8 +19653,16 @@
       <c r="N31" s="26" t="n"/>
       <c r="O31" s="26" t="n"/>
       <c r="P31" s="26" t="n"/>
-      <c r="Q31" s="26" t="n"/>
-      <c r="R31" s="26" t="n"/>
+      <c r="Q31" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R31" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S31" s="26" t="n"/>
       <c r="T31" s="26" t="n"/>
       <c r="U31" s="26" t="n"/>
@@ -19513,8 +19761,16 @@
       <c r="N33" s="26" t="n"/>
       <c r="O33" s="26" t="n"/>
       <c r="P33" s="26" t="n"/>
-      <c r="Q33" s="26" t="n"/>
-      <c r="R33" s="26" t="n"/>
+      <c r="Q33" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R33" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S33" s="26" t="n"/>
       <c r="T33" s="26" t="n"/>
       <c r="U33" s="26" t="n"/>
@@ -19623,8 +19879,16 @@
       <c r="N35" s="26" t="n"/>
       <c r="O35" s="26" t="n"/>
       <c r="P35" s="26" t="n"/>
-      <c r="Q35" s="26" t="n"/>
-      <c r="R35" s="26" t="n"/>
+      <c r="Q35" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R35" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S35" s="26" t="n"/>
       <c r="T35" s="26" t="n"/>
       <c r="U35" s="26" t="n"/>
@@ -19724,8 +19988,16 @@
       <c r="N37" s="26" t="n"/>
       <c r="O37" s="26" t="n"/>
       <c r="P37" s="26" t="n"/>
-      <c r="Q37" s="26" t="n"/>
-      <c r="R37" s="26" t="n"/>
+      <c r="Q37" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R37" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S37" s="26" t="n"/>
       <c r="T37" s="26" t="n"/>
       <c r="U37" s="26" t="n"/>
@@ -19834,8 +20106,16 @@
       <c r="N39" s="26" t="n"/>
       <c r="O39" s="26" t="n"/>
       <c r="P39" s="26" t="n"/>
-      <c r="Q39" s="26" t="n"/>
-      <c r="R39" s="26" t="n"/>
+      <c r="Q39" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R39" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S39" s="26" t="n"/>
       <c r="T39" s="26" t="n"/>
       <c r="U39" s="26" t="n"/>
@@ -19935,8 +20215,16 @@
       <c r="N41" s="26" t="n"/>
       <c r="O41" s="26" t="n"/>
       <c r="P41" s="26" t="n"/>
-      <c r="Q41" s="26" t="n"/>
-      <c r="R41" s="26" t="n"/>
+      <c r="Q41" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R41" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S41" s="26" t="n"/>
       <c r="T41" s="26" t="n"/>
       <c r="U41" s="26" t="n"/>
@@ -20045,8 +20333,16 @@
       <c r="N43" s="26" t="n"/>
       <c r="O43" s="26" t="n"/>
       <c r="P43" s="26" t="n"/>
-      <c r="Q43" s="26" t="n"/>
-      <c r="R43" s="26" t="n"/>
+      <c r="Q43" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R43" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S43" s="26" t="n"/>
       <c r="T43" s="26" t="n"/>
       <c r="U43" s="26" t="n"/>
@@ -20146,8 +20442,16 @@
       <c r="N45" s="26" t="n"/>
       <c r="O45" s="26" t="n"/>
       <c r="P45" s="26" t="n"/>
-      <c r="Q45" s="26" t="n"/>
-      <c r="R45" s="26" t="n"/>
+      <c r="Q45" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="R45" s="26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S45" s="26" t="n"/>
       <c r="T45" s="26" t="n"/>
       <c r="U45" s="26" t="n"/>
